--- a/similarities/split_global/harmonic_similarity_timestamps_148.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_148.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:30.654941', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:01:23.502731', '0:01:34.167952')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:46.900000', '0:00:55.240000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=83.502731</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=46.9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'C/3']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'E']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:56.157000', '0:00:59.418000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:35.962471', '0:00:40.095623')]</t>
+          <t>('0:01:51.920000', '0:01:55.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=56.157']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=35.962471']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:00:55.140000', '0:01:04.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:22.940000')]</t>
+          <t>('0:00:45.670000', '0:00:51.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=55.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:51.440000', '0:04:53.300000')]</t>
+          <t>('0:01:53.020000', '0:01:54.760000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=291.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:02:01.080000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:34.866000', '0:01:03.543000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>isophonics_62</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7'], ['D:min7', 'G:7', 'C']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['D/5', 'E/4', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.010000', '0:00:09.700000'), ('0:00:11.260000', '0:00:14.360000')]</t>
+          <t>('0:00:21.577709', '0:00:29.878843')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:42.100000', '0:00:48.620000'), ('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:00:05.544000', '0:00:09.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=5.01', 'https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=42.1', 'https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:42.080000', '0:00:57.880000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7']]</t>
+          <t>['E', 'A', 'D:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['F#:maj', 'B:maj', 'E:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.760000', '0:01:07.700000')]</t>
+          <t>('0:01:03.779977', '0:01:15.482834')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:15.040000', '0:00:19.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=15.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.608639', '0:00:24.317664')]</t>
+          <t>('0:00:23.140000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=16.608639']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['Ab:maj', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:00:00.175157', '0:00:04.720022')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:03:56.780000', '0:04:09.140000')]</t>
+          <t>('0:00:20.996000', '0:00:24.398000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=0.175157</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:41.060000', '0:00:45.160000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:34.640000', '0:00:41.660000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
